--- a/server/course_24_S_ECE.xlsx
+++ b/server/course_24_S_ECE.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>Class Nbr</t>
   </si>
@@ -67,7 +67,7 @@
     <t>TUTH</t>
   </si>
   <si>
-    <t>B314</t>
+    <t>C607</t>
   </si>
   <si>
     <t>Ji-Woong Lee</t>
@@ -79,71 +79,70 @@
     <t>L90</t>
   </si>
   <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Introduction to Electrical and Computer Engineering
+*Note: Extra course fee $73</t>
+  </si>
+  <si>
     <t>TU</t>
   </si>
   <si>
-    <t>C607</t>
-  </si>
-  <si>
-    <t>Discrete Mathematics for Engineers</t>
-  </si>
-  <si>
-    <t>B206</t>
-  </si>
-  <si>
-    <t>Introduction to Electrical and Computer Engineering
-*Extra Course Fee $ 73.00</t>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>Sangjin Hong</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C508</t>
+  </si>
+  <si>
+    <t>Programming Fundamentals</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B614</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Advanced Programming and Data Structures</t>
+  </si>
+  <si>
+    <t>B613</t>
+  </si>
+  <si>
+    <t>Electrical Circuit Analysis</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Microelectronic Circuits</t>
+  </si>
+  <si>
+    <t>Gilwon Yoon</t>
+  </si>
+  <si>
+    <t>Deterministic Signals and Systems</t>
+  </si>
+  <si>
+    <t>Pandom Signals and Systems</t>
   </si>
   <si>
     <t>B104</t>
   </si>
   <si>
-    <t>Cornelius Bradter</t>
-  </si>
-  <si>
-    <t>C508</t>
-  </si>
-  <si>
-    <t>Programming Fundamentals</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>B614</t>
-  </si>
-  <si>
-    <t>Sangjin Hong</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Electrical Circuit Analysis</t>
-  </si>
-  <si>
-    <t>B204</t>
-  </si>
-  <si>
-    <t>Embedded Microcontroller Systems Design I
-*Extra Course Fee $ 99.00</t>
-  </si>
-  <si>
-    <t>B613</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>Deterministic Signals and Systems</t>
-  </si>
-  <si>
-    <t>B205</t>
-  </si>
-  <si>
-    <t>Gil Won Yoon</t>
-  </si>
-  <si>
     <t>Undergraduate Teaching Practicum</t>
   </si>
   <si>
@@ -162,16 +161,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>Instructional Laboratory Development Practicum</t>
-  </si>
-  <si>
     <t>Internship in Electrical/Computer Engineering</t>
   </si>
   <si>
-    <t>T91</t>
-  </si>
-  <si>
-    <t>Research in Electrical Sciences</t>
+    <t>Pesearch in Electrical Sciences</t>
   </si>
   <si>
     <t>0 to 3</t>
@@ -222,7 +215,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -299,11 +292,19 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -317,13 +318,13 @@
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
@@ -344,26 +345,42 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +641,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>96954.0</v>
+        <v>52368.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -632,10 +649,10 @@
       <c r="C2" s="5">
         <v>118.0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -659,13 +676,13 @@
       <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10">
-        <v>96956.0</v>
+        <v>52369.0</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -688,35 +705,37 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="14">
+        <v>52358.0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16">
+        <v>123.0</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="10">
-        <v>96973.0</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10">
-        <v>122.0</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="18">
+        <v>90.0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="10">
-        <v>90.0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="J4" s="13">
         <v>0.7083333333333334</v>
@@ -724,57 +743,37 @@
       <c r="K4" s="13">
         <v>0.7638888888888888</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>19</v>
+      <c r="M4" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
-        <v>92506.0</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="17">
-        <v>123.0</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="10">
-        <v>90.0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>4.0</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J5" s="13">
-        <v>0.6458333333333334</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="K5" s="13">
-        <v>0.7013888888888888</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>0.5763888888888888</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <v>92507.0</v>
+        <v>52359.0</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -788,61 +787,63 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J6" s="13">
-        <v>0.7083333333333334</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="K6" s="13">
-        <v>0.8263888888888888</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="10">
-        <v>96985.0</v>
-      </c>
-      <c r="B7" s="16" t="s">
+        <v>56831.0</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>124.0</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="20"/>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="10">
         <v>90.0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>4.0</v>
       </c>
       <c r="I7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.8680555555555556</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="13">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0.7638888888888888</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>33</v>
+      <c r="M7" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10">
-        <v>96975.0</v>
+        <v>56832.0</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -856,151 +857,151 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="13">
-        <v>0.5833333333333334</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="K8" s="13">
-        <v>0.7013888888888888</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="10">
-        <v>96955.0</v>
-      </c>
-      <c r="B9" s="12" t="s">
+        <v>56528.0</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10">
-        <v>271.0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="15"/>
+      <c r="C9" s="14">
+        <v>224.0</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="10">
         <v>90.0</v>
       </c>
-      <c r="H9" s="10">
-        <v>3.0</v>
+      <c r="H9" s="18">
+        <v>4.0</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="13">
-        <v>0.375</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="K9" s="13">
-        <v>0.4305555555555556</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10">
-        <v>96976.0</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="17">
-        <v>280.0</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="20"/>
+        <v>56527.0</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10">
-        <v>90.0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>4.0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J10" s="13">
         <v>0.5833333333333334</v>
       </c>
       <c r="K10" s="13">
-        <v>0.6388888888888888</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="10">
-        <v>96977.0</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+        <v>56477.0</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10">
+        <v>271.0</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="25"/>
       <c r="F11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="G11" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3.0</v>
+      </c>
       <c r="I11" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J11" s="13">
-        <v>0.6458333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="K11" s="13">
-        <v>0.7430555555555556</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="10">
-        <v>96981.0</v>
-      </c>
-      <c r="B12" s="12" t="s">
+        <v>56530.0</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10">
-        <v>305.0</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="15"/>
+      <c r="C12" s="14">
+        <v>272.0</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="23"/>
       <c r="F12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="10">
         <v>90.0</v>
       </c>
-      <c r="H12" s="10">
-        <v>3.0</v>
+      <c r="H12" s="18">
+        <v>4.0</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J12" s="13">
         <v>0.4375</v>
@@ -1009,171 +1010,153 @@
         <v>0.4930555555555556</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10">
-        <v>92510.0</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10">
-        <v>475.0</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>56529.0</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="12" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="10">
-        <v>3.0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="12" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J13" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K13" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="M13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="10">
-        <v>92511.0</v>
+        <v>56491.0</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="10">
-        <v>476.0</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>273.0</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="26"/>
       <c r="F14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="G14" s="10">
+        <v>90.0</v>
       </c>
       <c r="H14" s="10">
         <v>3.0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J14" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K14" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10">
-        <v>92512.0</v>
+        <v>56473.0</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="10">
-        <v>488.0</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>305.0</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="26"/>
       <c r="F15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="G15" s="10">
+        <v>90.0</v>
       </c>
       <c r="H15" s="10">
         <v>3.0</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J15" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.4375</v>
       </c>
       <c r="K15" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10">
-        <v>97170.0</v>
+        <v>56492.0</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="10">
-        <v>488.0</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>306.0</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="26"/>
       <c r="F16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="G16" s="10">
+        <v>90.0</v>
       </c>
       <c r="H16" s="10">
         <v>3.0</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J16" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="K16" s="13">
-        <v>0.041666666666666664</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>19</v>
@@ -1181,26 +1164,28 @@
     </row>
     <row r="17">
       <c r="A17" s="10">
-        <v>92513.0</v>
+        <v>52360.0</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="10">
-        <v>499.0</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="15"/>
+        <v>475.0</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>53</v>
+      <c r="H17" s="10">
+        <v>3.0</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>47</v>
@@ -1215,31 +1200,33 @@
         <v>48</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10">
-        <v>97171.0</v>
+        <v>52361.0</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="10">
-        <v>499.0</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="15"/>
+        <v>476.0</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="F18" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3.0</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>47</v>
@@ -1254,35 +1241,205 @@
         <v>48</v>
       </c>
       <c r="M18" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10">
+        <v>52362.0</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10">
+        <v>488.0</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10">
+        <v>56475.0</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10">
+        <v>488.0</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="10">
+        <v>52363.0</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10">
+        <v>499.0</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10">
+        <v>56476.0</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="10">
+        <v>499.0</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H5:H6"/>
+  <mergeCells count="34">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M6"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
